--- a/Spraw2/lab2.xlsx
+++ b/Spraw2/lab2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF01E71E-2C3C-4BE9-B170-A5B2913FEC61}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B40E0799-B3D3-47E3-9D86-B60683AACFA0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
   <si>
     <t>Srednice:</t>
   </si>
@@ -650,7 +650,7 @@
   <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Spraw2/lab2.xlsx
+++ b/Spraw2/lab2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B40E0799-B3D3-47E3-9D86-B60683AACFA0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D01ECCC-BF81-4C0F-9E48-B0FA5A415DD1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
   <si>
     <t>Srednice:</t>
   </si>
@@ -647,17 +647,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R27"/>
+  <dimension ref="A1:R45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.21875" customWidth="1"/>
     <col min="6" max="6" width="10.77734375" bestFit="1" customWidth="1"/>
@@ -1829,6 +1829,171 @@
         <v>37.041000000000004</v>
       </c>
     </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B35">
+        <f>G4/1000</f>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C35">
+        <f>L4/1000</f>
+        <v>4.86E-4</v>
+      </c>
+      <c r="D35">
+        <f>P4</f>
+        <v>18.61</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B36">
+        <f t="shared" ref="B36:B44" si="12">G5/1000</f>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C36">
+        <f t="shared" ref="C36:C44" si="13">L5/1000</f>
+        <v>4.7999999999999996E-4</v>
+      </c>
+      <c r="D36">
+        <f t="shared" ref="D36:D44" si="14">P5</f>
+        <v>18.48</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B37">
+        <f t="shared" si="12"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="13"/>
+        <v>4.8240000000000002E-4</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="14"/>
+        <v>20.36</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B38">
+        <f t="shared" si="12"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="13"/>
+        <v>4.8440000000000001E-4</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="14"/>
+        <v>18.18</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B39">
+        <f t="shared" si="12"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="13"/>
+        <v>4.9799999999999996E-4</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="14"/>
+        <v>18.14</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B40">
+        <f t="shared" si="12"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="13"/>
+        <v>4.9160000000000002E-4</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="14"/>
+        <v>18.38</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B41">
+        <f t="shared" si="12"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="13"/>
+        <v>4.9240000000000004E-4</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="14"/>
+        <v>18.899999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B42">
+        <f t="shared" si="12"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="13"/>
+        <v>4.9540000000000001E-4</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="14"/>
+        <v>18.16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B43">
+        <f t="shared" si="12"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="13"/>
+        <v>4.8120000000000004E-4</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="14"/>
+        <v>18.25</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B44">
+        <f t="shared" si="12"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="13"/>
+        <v>4.9160000000000002E-4</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="14"/>
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B45">
+        <f>SUM(B35:B44)/10</f>
+        <v>8.0000000000000019E-3</v>
+      </c>
+      <c r="C45">
+        <f t="shared" ref="C45" si="15">SUM(C35:C44)/10</f>
+        <v>4.883E-4</v>
+      </c>
+      <c r="D45">
+        <f t="shared" ref="D45" si="16">SUM(D35:D44)/10</f>
+        <v>18.595999999999997</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="3">

--- a/Spraw2/lab2.xlsx
+++ b/Spraw2/lab2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D01ECCC-BF81-4C0F-9E48-B0FA5A415DD1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{935948C5-5992-4B46-8D46-DC1BC4250443}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
   <si>
     <t>Srednice:</t>
   </si>
@@ -647,10 +647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R45"/>
+  <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1829,171 +1829,6 @@
         <v>37.041000000000004</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B34" t="s">
-        <v>13</v>
-      </c>
-      <c r="C34" t="s">
-        <v>18</v>
-      </c>
-      <c r="D34" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B35">
-        <f>G4/1000</f>
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="C35">
-        <f>L4/1000</f>
-        <v>4.86E-4</v>
-      </c>
-      <c r="D35">
-        <f>P4</f>
-        <v>18.61</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B36">
-        <f t="shared" ref="B36:B44" si="12">G5/1000</f>
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="C36">
-        <f t="shared" ref="C36:C44" si="13">L5/1000</f>
-        <v>4.7999999999999996E-4</v>
-      </c>
-      <c r="D36">
-        <f t="shared" ref="D36:D44" si="14">P5</f>
-        <v>18.48</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B37">
-        <f t="shared" si="12"/>
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="C37">
-        <f t="shared" si="13"/>
-        <v>4.8240000000000002E-4</v>
-      </c>
-      <c r="D37">
-        <f t="shared" si="14"/>
-        <v>20.36</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B38">
-        <f t="shared" si="12"/>
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="C38">
-        <f t="shared" si="13"/>
-        <v>4.8440000000000001E-4</v>
-      </c>
-      <c r="D38">
-        <f t="shared" si="14"/>
-        <v>18.18</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B39">
-        <f t="shared" si="12"/>
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="C39">
-        <f t="shared" si="13"/>
-        <v>4.9799999999999996E-4</v>
-      </c>
-      <c r="D39">
-        <f t="shared" si="14"/>
-        <v>18.14</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B40">
-        <f t="shared" si="12"/>
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="C40">
-        <f t="shared" si="13"/>
-        <v>4.9160000000000002E-4</v>
-      </c>
-      <c r="D40">
-        <f t="shared" si="14"/>
-        <v>18.38</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B41">
-        <f t="shared" si="12"/>
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="C41">
-        <f t="shared" si="13"/>
-        <v>4.9240000000000004E-4</v>
-      </c>
-      <c r="D41">
-        <f t="shared" si="14"/>
-        <v>18.899999999999999</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B42">
-        <f t="shared" si="12"/>
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="C42">
-        <f t="shared" si="13"/>
-        <v>4.9540000000000001E-4</v>
-      </c>
-      <c r="D42">
-        <f t="shared" si="14"/>
-        <v>18.16</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B43">
-        <f t="shared" si="12"/>
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="C43">
-        <f t="shared" si="13"/>
-        <v>4.8120000000000004E-4</v>
-      </c>
-      <c r="D43">
-        <f t="shared" si="14"/>
-        <v>18.25</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B44">
-        <f t="shared" si="12"/>
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="C44">
-        <f t="shared" si="13"/>
-        <v>4.9160000000000002E-4</v>
-      </c>
-      <c r="D44">
-        <f t="shared" si="14"/>
-        <v>18.5</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B45">
-        <f>SUM(B35:B44)/10</f>
-        <v>8.0000000000000019E-3</v>
-      </c>
-      <c r="C45">
-        <f t="shared" ref="C45" si="15">SUM(C35:C44)/10</f>
-        <v>4.883E-4</v>
-      </c>
-      <c r="D45">
-        <f t="shared" ref="D45" si="16">SUM(D35:D44)/10</f>
-        <v>18.595999999999997</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="3">

--- a/Spraw2/lab2.xlsx
+++ b/Spraw2/lab2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B40E0799-B3D3-47E3-9D86-B60683AACFA0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED6A582E-3A18-44D0-9709-8AF0C5D788E8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -18,7 +18,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
   <si>
     <t>Srednice:</t>
   </si>
@@ -149,6 +148,21 @@
   </si>
   <si>
     <t>Wysokosc mierzona(h)=</t>
+  </si>
+  <si>
+    <t>biala</t>
+  </si>
+  <si>
+    <t>czarna</t>
+  </si>
+  <si>
+    <t>niebieska</t>
+  </si>
+  <si>
+    <t>u(t)</t>
+  </si>
+  <si>
+    <t>uc(n)</t>
   </si>
 </sst>
 </file>
@@ -278,7 +292,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
@@ -291,13 +305,15 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="4"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Accent1" xfId="1" builtinId="29"/>
-    <cellStyle name="Accent2" xfId="2" builtinId="33"/>
-    <cellStyle name="Accent3" xfId="3" builtinId="37"/>
-    <cellStyle name="Input" xfId="4" builtinId="20"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Akcent 1" xfId="1" builtinId="29"/>
+    <cellStyle name="Akcent 2" xfId="2" builtinId="33"/>
+    <cellStyle name="Akcent 3" xfId="3" builtinId="37"/>
+    <cellStyle name="Dane wejściowe" xfId="4" builtinId="20"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -345,40 +361,40 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F924ECF8-A72F-4239-80DB-6BF7D7C6E0F7}" name="Table1" displayName="Table1" ref="F3:J13" totalsRowShown="0" headerRowCellStyle="Accent1" dataCellStyle="Accent1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F924ECF8-A72F-4239-80DB-6BF7D7C6E0F7}" name="Table1" displayName="Table1" ref="F3:J13" totalsRowShown="0">
   <autoFilter ref="F3:J13" xr:uid="{B2E8A9E9-7AC9-4DBD-ABD8-CC1033BB68F6}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{8F504271-1FF0-4C49-B1D6-A7963083EAFF}" name="Srednice:" dataCellStyle="Accent1"/>
-    <tableColumn id="2" xr3:uid="{E91DD9E3-CC68-4499-8258-D136C1584826}" name="Biala[mm]" dataCellStyle="Accent1"/>
-    <tableColumn id="3" xr3:uid="{31EA2A69-9772-46CD-9EF9-077D33D7AACA}" name="Czarna[mm]" dataCellStyle="Accent1"/>
-    <tableColumn id="4" xr3:uid="{E9BE3F0D-3671-40FB-AD41-771B89F211D9}" name="Niebieska[mm]" dataCellStyle="Accent1"/>
-    <tableColumn id="5" xr3:uid="{2B4AD0EC-0E4D-460C-B65D-DC4111D2A413}" name="+/- 0.05mm" dataCellStyle="Accent1"/>
+    <tableColumn id="1" xr3:uid="{8F504271-1FF0-4C49-B1D6-A7963083EAFF}" name="Srednice:"/>
+    <tableColumn id="2" xr3:uid="{E91DD9E3-CC68-4499-8258-D136C1584826}" name="Biala[mm]"/>
+    <tableColumn id="3" xr3:uid="{31EA2A69-9772-46CD-9EF9-077D33D7AACA}" name="Czarna[mm]"/>
+    <tableColumn id="4" xr3:uid="{E9BE3F0D-3671-40FB-AD41-771B89F211D9}" name="Niebieska[mm]"/>
+    <tableColumn id="5" xr3:uid="{2B4AD0EC-0E4D-460C-B65D-DC4111D2A413}" name="+/- 0.05mm"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{ACBE770F-2542-4335-9D93-A45D4D3C6184}" name="Table2" displayName="Table2" ref="K3:N13" totalsRowShown="0" tableBorderDxfId="1" headerRowCellStyle="Accent2" dataCellStyle="Accent2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{ACBE770F-2542-4335-9D93-A45D4D3C6184}" name="Table2" displayName="Table2" ref="K3:N13" totalsRowShown="0" tableBorderDxfId="1">
   <autoFilter ref="K3:N13" xr:uid="{260B5D68-B9C8-489C-96E8-153F5068ABC1}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{211166F3-AFDC-4703-8718-B10CB582ED8E}" name="Wagi:" dataCellStyle="Accent2"/>
-    <tableColumn id="2" xr3:uid="{4B4BEDA0-94C3-4530-A21A-8C386E432320}" name="Biala[g]" dataCellStyle="Accent2"/>
-    <tableColumn id="3" xr3:uid="{FF5D761A-0E02-4E77-AD3B-2947FE80BC8F}" name="Czarna[g]" dataCellStyle="Accent2"/>
-    <tableColumn id="4" xr3:uid="{E2788AFA-2050-4FA4-AFF6-8B34D1AD47F9}" name="Niebieska[g]" dataCellStyle="Accent2"/>
+    <tableColumn id="1" xr3:uid="{211166F3-AFDC-4703-8718-B10CB582ED8E}" name="Wagi:"/>
+    <tableColumn id="2" xr3:uid="{4B4BEDA0-94C3-4530-A21A-8C386E432320}" name="Biala[g]"/>
+    <tableColumn id="3" xr3:uid="{FF5D761A-0E02-4E77-AD3B-2947FE80BC8F}" name="Czarna[g]"/>
+    <tableColumn id="4" xr3:uid="{E2788AFA-2050-4FA4-AFF6-8B34D1AD47F9}" name="Niebieska[g]"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FB62C03D-2D5C-401A-91AA-85A12E3BD54F}" name="Table3" displayName="Table3" ref="O3:R13" totalsRowShown="0" headerRowCellStyle="Accent3" dataCellStyle="Accent3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FB62C03D-2D5C-401A-91AA-85A12E3BD54F}" name="Table3" displayName="Table3" ref="O3:R13" totalsRowShown="0">
   <autoFilter ref="O3:R13" xr:uid="{48E7C948-4E29-4D8A-A2B2-6743BAE7D7EA}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{1997169A-101E-44BF-A82E-A48D51745537}" name="Czasy Spadania[s]:" dataCellStyle="Accent3"/>
-    <tableColumn id="2" xr3:uid="{100578B5-3BFC-41FD-BE19-EEA2FA681DE0}" name="Biala" dataDxfId="0" dataCellStyle="Accent3"/>
-    <tableColumn id="3" xr3:uid="{23A34B20-336E-41F1-93CF-A5FB205018E5}" name="Czarna" dataCellStyle="Accent3"/>
-    <tableColumn id="4" xr3:uid="{536CA415-8F40-4AF1-8356-9BAD1664F094}" name="Niebieska" dataCellStyle="Accent3"/>
+    <tableColumn id="1" xr3:uid="{1997169A-101E-44BF-A82E-A48D51745537}" name="Czasy Spadania[s]:"/>
+    <tableColumn id="2" xr3:uid="{100578B5-3BFC-41FD-BE19-EEA2FA681DE0}" name="Biala" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{23A34B20-336E-41F1-93CF-A5FB205018E5}" name="Czarna"/>
+    <tableColumn id="4" xr3:uid="{536CA415-8F40-4AF1-8356-9BAD1664F094}" name="Niebieska"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -647,10 +663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R27"/>
+  <dimension ref="A1:R42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -670,7 +686,7 @@
     <col min="13" max="13" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="8.88671875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="6" bestFit="1" customWidth="1"/>
@@ -1054,6 +1070,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" s="13"/>
       <c r="F10" s="2">
         <v>7</v>
       </c>
@@ -1095,6 +1112,13 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" s="13">
+        <f>SQRT((6/(3.14159*G27^3))^2*0.00000001^2+((18*L27)/(3.13159*G27^4))^2*J27^2)</f>
+        <v>34.261363735195431</v>
+      </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
       <c r="F11" s="2">
         <v>8</v>
       </c>
@@ -1136,6 +1160,13 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" s="13">
+        <f>SQRT((6/(3.14159*H27^3))^2*0.00000001^2+((18*M27)/(3.13159*H27^4))^2*J27^2)</f>
+        <v>53.485061719678434</v>
+      </c>
+      <c r="B12" t="s">
+        <v>42</v>
+      </c>
       <c r="F12" s="2">
         <v>9</v>
       </c>
@@ -1177,6 +1208,13 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" s="12">
+        <f>SQRT((6/(3.14159*I27^3))^2*0.00000001^2+((18*N27)/(3.13159*I27^4))^2*J27^2)</f>
+        <v>28.705739623618161</v>
+      </c>
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
       <c r="F13" s="2">
         <v>10</v>
       </c>
@@ -1829,12 +1867,135 @@
         <v>37.041000000000004</v>
       </c>
     </row>
+    <row r="29" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="P29">
+        <f>P17-$P$27</f>
+        <v>1.4000000000002899E-2</v>
+      </c>
+      <c r="Q29">
+        <f>P29^2</f>
+        <v>1.9600000000008117E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="P30">
+        <f t="shared" ref="P30:P38" si="12">P18-$P$27</f>
+        <v>-0.11599999999999611</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" ref="Q30:Q38" si="13">P30^2</f>
+        <v>1.3455999999999097E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="P31">
+        <f t="shared" si="12"/>
+        <v>1.7640000000000029</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="13"/>
+        <v>3.11169600000001</v>
+      </c>
+    </row>
+    <row r="32" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="P32">
+        <f t="shared" si="12"/>
+        <v>-0.41599999999999682</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="13"/>
+        <v>0.17305599999999735</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="P33">
+        <f t="shared" si="12"/>
+        <v>-0.45599999999999596</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="13"/>
+        <v>0.20793599999999632</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34">
+        <f>SQRT((G27*B3*P27*(B4-B7)/(9*B2))^2*J27^2+(G27^2*B3*(B4-B7)/(18*B2))^2*Q42^2+(G27^2*B3*P27/(18*B2))^2*A11^2+(G27^2*B3*P27/(18*B2))^2*C7^2+(G27^2*B3*P27*(B4-B7)/(18*B2^2))^2*C2^2)</f>
+        <v>6.9744395896443767E-2</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="12"/>
+        <v>-0.21599999999999753</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="13"/>
+        <v>4.6655999999998934E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="P35">
+        <f t="shared" si="12"/>
+        <v>0.30400000000000205</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="13"/>
+        <v>9.2416000000001247E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="P36">
+        <f t="shared" si="12"/>
+        <v>-0.43599999999999639</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="13"/>
+        <v>0.19009599999999685</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="P37">
+        <f t="shared" si="12"/>
+        <v>-0.34599999999999653</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="13"/>
+        <v>0.1197159999999976</v>
+      </c>
+    </row>
+    <row r="38" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="P38">
+        <f t="shared" si="12"/>
+        <v>-9.5999999999996533E-2</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="13"/>
+        <v>9.2159999999993341E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="Q40">
+        <f>SQRT(SUM(Q29:Q38)/(90))</f>
+        <v>0.20987933040996035</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="P42" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q42">
+        <f>SQRT(Q40^2)</f>
+        <v>0.20987933040996035</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <tableParts count="3">
-    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Spraw2/lab2.xlsx
+++ b/Spraw2/lab2.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED6A582E-3A18-44D0-9709-8AF0C5D788E8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AD743B6-EFA8-4427-B951-53B0F1A8F8E8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -18,6 +18,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -665,8 +666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1923,7 +1924,7 @@
       </c>
       <c r="D34">
         <f>SQRT((G27*B3*P27*(B4-B7)/(9*B2))^2*J27^2+(G27^2*B3*(B4-B7)/(18*B2))^2*Q42^2+(G27^2*B3*P27/(18*B2))^2*A11^2+(G27^2*B3*P27/(18*B2))^2*C7^2+(G27^2*B3*P27*(B4-B7)/(18*B2^2))^2*C2^2)</f>
-        <v>6.9744395896443767E-2</v>
+        <v>6.9746811328229463E-2</v>
       </c>
       <c r="P34">
         <f t="shared" si="12"/>
@@ -1935,6 +1936,10 @@
       </c>
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="D35">
+        <f>SQRT((H27*B3*Q27*(B5-B7)/(9*B2))^2*J27^2+(H27^2*B3*(B5-B7)/(18*B2))^2*Q42^2+(H27^2*B3*Q27/(18*B2))^2*A12^2+(H27^2*B3*Q27/(18*B2))^2*C7^2+(H27^2*B3*Q27*(B5-B7)/(18*B2^2))^2*C2^2)</f>
+        <v>7.0434060739725857E-2</v>
+      </c>
       <c r="P35">
         <f t="shared" si="12"/>
         <v>0.30400000000000205</v>
@@ -1945,6 +1950,10 @@
       </c>
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="D36">
+        <f>SQRT((I27*B3*R27*(B6-B7)/(9*B2))^2*J27^2+(I27^2*B3*(B6-B7)/(18*B2))^2*Q42^2+(I27^2*B3*R27/(18*B2))^2*A13^2+(I27^2*B3*R27/(18*B2))^2*C7^2+(I27^2*B3*R27*(B6-B7)/(18*B2^2))^2*C2^2)</f>
+        <v>0.11564287497275108</v>
+      </c>
       <c r="P36">
         <f t="shared" si="12"/>
         <v>-0.43599999999999639</v>
@@ -1985,8 +1994,8 @@
         <v>44</v>
       </c>
       <c r="Q42">
-        <f>SQRT(Q40^2)</f>
-        <v>0.20987933040996035</v>
+        <f>SQRT(Q40^2+0.02^2/3)</f>
+        <v>0.21019673324451701</v>
       </c>
     </row>
   </sheetData>

--- a/Spraw2/lab2.xlsx
+++ b/Spraw2/lab2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AD743B6-EFA8-4427-B951-53B0F1A8F8E8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D76383-CA59-4CF4-96F8-957635093D56}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="49">
   <si>
     <t>Srednice:</t>
   </si>
@@ -164,6 +164,15 @@
   </si>
   <si>
     <t>uc(n)</t>
+  </si>
+  <si>
+    <t>lepklosc</t>
+  </si>
+  <si>
+    <t>sredni blad</t>
+  </si>
+  <si>
+    <t>srednia lepkosc</t>
   </si>
 </sst>
 </file>
@@ -666,8 +675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1922,10 +1931,16 @@
       <c r="B34" t="s">
         <v>45</v>
       </c>
+      <c r="C34" t="s">
+        <v>41</v>
+      </c>
       <c r="D34">
         <f>SQRT((G27*B3*P27*(B4-B7)/(9*B2))^2*J27^2+(G27^2*B3*(B4-B7)/(18*B2))^2*Q42^2+(G27^2*B3*P27/(18*B2))^2*A11^2+(G27^2*B3*P27/(18*B2))^2*C7^2+(G27^2*B3*P27*(B4-B7)/(18*B2^2))^2*C2^2)</f>
         <v>6.9746811328229463E-2</v>
       </c>
+      <c r="F34" t="s">
+        <v>47</v>
+      </c>
       <c r="P34">
         <f t="shared" si="12"/>
         <v>-0.21599999999999753</v>
@@ -1936,10 +1951,17 @@
       </c>
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="C35" t="s">
+        <v>42</v>
+      </c>
       <c r="D35">
         <f>SQRT((H27*B3*Q27*(B5-B7)/(9*B2))^2*J27^2+(H27^2*B3*(B5-B7)/(18*B2))^2*Q42^2+(H27^2*B3*Q27/(18*B2))^2*A12^2+(H27^2*B3*Q27/(18*B2))^2*C7^2+(H27^2*B3*Q27*(B5-B7)/(18*B2^2))^2*C2^2)</f>
         <v>7.0434060739725857E-2</v>
       </c>
+      <c r="F35">
+        <f>(D34+D35+D36)/3</f>
+        <v>8.5274582346902147E-2</v>
+      </c>
       <c r="P35">
         <f t="shared" si="12"/>
         <v>0.30400000000000205</v>
@@ -1950,6 +1972,9 @@
       </c>
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="C36" t="s">
+        <v>43</v>
+      </c>
       <c r="D36">
         <f>SQRT((I27*B3*R27*(B6-B7)/(9*B2))^2*J27^2+(I27^2*B3*(B6-B7)/(18*B2))^2*Q42^2+(I27^2*B3*R27/(18*B2))^2*A13^2+(I27^2*B3*R27/(18*B2))^2*C7^2+(I27^2*B3*R27*(B6-B7)/(18*B2^2))^2*C2^2)</f>
         <v>0.11564287497275108</v>
@@ -1983,10 +2008,33 @@
         <v>9.2159999999993341E-3</v>
       </c>
     </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>46</v>
+      </c>
+      <c r="D39">
+        <v>0.93479999999999996</v>
+      </c>
+      <c r="F39" t="s">
+        <v>48</v>
+      </c>
+    </row>
     <row r="40" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="D40">
+        <v>0.99839999999999995</v>
+      </c>
+      <c r="F40">
+        <f>(D39+D40+D41)/3</f>
+        <v>0.89206666666666656</v>
+      </c>
       <c r="Q40">
         <f>SQRT(SUM(Q29:Q38)/(90))</f>
         <v>0.20987933040996035</v>
+      </c>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="D41">
+        <v>0.74299999999999999</v>
       </c>
     </row>
     <row r="42" spans="2:17" x14ac:dyDescent="0.3">

--- a/Spraw2/lab2.xlsx
+++ b/Spraw2/lab2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D76383-CA59-4CF4-96F8-957635093D56}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A391676-9D41-49F3-9B61-D38F5C8AEBE0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="49">
   <si>
     <t>Srednice:</t>
   </si>
@@ -136,9 +136,6 @@
     <t>RO_C Gliceryny=</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>Blad:</t>
   </si>
   <si>
@@ -173,6 +170,9 @@
   </si>
   <si>
     <t>srednia lepkosc</t>
+  </si>
+  <si>
+    <t>Si</t>
   </si>
 </sst>
 </file>
@@ -673,10 +673,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R42"/>
+  <dimension ref="A1:U42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" topLeftCell="D19" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -705,19 +705,19 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>37</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" s="11">
         <v>0.34100000000000003</v>
@@ -792,8 +792,8 @@
       <c r="B4" s="11">
         <v>1821.45</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>36</v>
+      <c r="C4" s="11">
+        <v>34.261363735195431</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>33</v>
@@ -845,8 +845,8 @@
       <c r="B5" s="11">
         <v>2132.59</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>36</v>
+      <c r="C5" s="11">
+        <v>53.485061719678434</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>33</v>
@@ -898,8 +898,8 @@
       <c r="B6" s="11">
         <v>1526.1</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>36</v>
+      <c r="C6" s="11">
+        <v>28.705739623618161</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>33</v>
@@ -1127,7 +1127,7 @@
         <v>34.261363735195431</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F11" s="2">
         <v>8</v>
@@ -1175,7 +1175,7 @@
         <v>53.485061719678434</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F12" s="2">
         <v>9</v>
@@ -1223,7 +1223,7 @@
         <v>28.705739623618161</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F13" s="2">
         <v>10</v>
@@ -1306,7 +1306,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="6:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="6:21" x14ac:dyDescent="0.3">
       <c r="F17" s="9">
         <f>F4</f>
         <v>1</v>
@@ -1358,7 +1358,7 @@
         <v>37.08</v>
       </c>
     </row>
-    <row r="18" spans="6:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="6:21" x14ac:dyDescent="0.3">
       <c r="F18" s="9">
         <f t="shared" ref="F18:F26" si="2">F5</f>
         <v>2</v>
@@ -1410,7 +1410,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="6:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="6:21" x14ac:dyDescent="0.3">
       <c r="F19" s="9">
         <f t="shared" si="2"/>
         <v>3</v>
@@ -1462,7 +1462,7 @@
         <v>37.159999999999997</v>
       </c>
     </row>
-    <row r="20" spans="6:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="6:21" x14ac:dyDescent="0.3">
       <c r="F20" s="9">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -1514,7 +1514,7 @@
         <v>37.92</v>
       </c>
     </row>
-    <row r="21" spans="6:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="6:21" x14ac:dyDescent="0.3">
       <c r="F21" s="9">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -1566,7 +1566,7 @@
         <v>37.39</v>
       </c>
     </row>
-    <row r="22" spans="6:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="6:21" x14ac:dyDescent="0.3">
       <c r="F22" s="9">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -1618,7 +1618,7 @@
         <v>36.799999999999997</v>
       </c>
     </row>
-    <row r="23" spans="6:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="6:21" x14ac:dyDescent="0.3">
       <c r="F23" s="9">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -1670,7 +1670,7 @@
         <v>36.86</v>
       </c>
     </row>
-    <row r="24" spans="6:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="6:21" x14ac:dyDescent="0.3">
       <c r="F24" s="9">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -1722,7 +1722,7 @@
         <v>37.39</v>
       </c>
     </row>
-    <row r="25" spans="6:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="6:21" x14ac:dyDescent="0.3">
       <c r="F25" s="9">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -1774,7 +1774,7 @@
         <v>36.520000000000003</v>
       </c>
     </row>
-    <row r="26" spans="6:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="6:21" x14ac:dyDescent="0.3">
       <c r="F26" s="9">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -1826,7 +1826,7 @@
         <v>36.29</v>
       </c>
     </row>
-    <row r="27" spans="6:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="6:21" x14ac:dyDescent="0.3">
       <c r="F27" t="s">
         <v>24</v>
       </c>
@@ -1877,7 +1877,7 @@
         <v>37.041000000000004</v>
       </c>
     </row>
-    <row r="29" spans="6:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="6:21" x14ac:dyDescent="0.3">
       <c r="P29">
         <f>P17-$P$27</f>
         <v>1.4000000000002899E-2</v>
@@ -1886,8 +1886,24 @@
         <f>P29^2</f>
         <v>1.9600000000008117E-4</v>
       </c>
-    </row>
-    <row r="30" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="R29">
+        <f>Q17-$Q$27</f>
+        <v>0.2099999999999973</v>
+      </c>
+      <c r="S29">
+        <f>R29^2</f>
+        <v>4.4099999999998869E-2</v>
+      </c>
+      <c r="T29">
+        <f>R17-$R$27</f>
+        <v>3.8999999999994373E-2</v>
+      </c>
+      <c r="U29">
+        <f>T29^2</f>
+        <v>1.5209999999995611E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="6:21" x14ac:dyDescent="0.3">
       <c r="P30">
         <f t="shared" ref="P30:P38" si="12">P18-$P$27</f>
         <v>-0.11599999999999611</v>
@@ -1896,8 +1912,24 @@
         <f t="shared" ref="Q30:Q38" si="13">P30^2</f>
         <v>1.3455999999999097E-2</v>
       </c>
-    </row>
-    <row r="31" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="R30">
+        <f t="shared" ref="R30:R38" si="14">Q18-$Q$27</f>
+        <v>0.61999999999999744</v>
+      </c>
+      <c r="S30">
+        <f t="shared" ref="S30:S38" si="15">R30^2</f>
+        <v>0.38439999999999686</v>
+      </c>
+      <c r="T30">
+        <f t="shared" ref="T30:T38" si="16">R18-$R$27</f>
+        <v>-4.1000000000003922E-2</v>
+      </c>
+      <c r="U30">
+        <f t="shared" ref="U30:U38" si="17">T30^2</f>
+        <v>1.6810000000003216E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="6:21" x14ac:dyDescent="0.3">
       <c r="P31">
         <f t="shared" si="12"/>
         <v>1.7640000000000029</v>
@@ -1906,8 +1938,24 @@
         <f t="shared" si="13"/>
         <v>3.11169600000001</v>
       </c>
-    </row>
-    <row r="32" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="R31">
+        <f t="shared" si="14"/>
+        <v>-1.0000000000001563E-2</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="15"/>
+        <v>1.0000000000003127E-4</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="16"/>
+        <v>0.11899999999999267</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="17"/>
+        <v>1.4160999999998255E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="6:21" x14ac:dyDescent="0.3">
       <c r="P32">
         <f t="shared" si="12"/>
         <v>-0.41599999999999682</v>
@@ -1916,8 +1964,24 @@
         <f t="shared" si="13"/>
         <v>0.17305599999999735</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="R32">
+        <f t="shared" si="14"/>
+        <v>-6.0000000000002274E-2</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="15"/>
+        <v>3.6000000000002727E-3</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="16"/>
+        <v>0.87899999999999778</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="17"/>
+        <v>0.77264099999999614</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.3">
       <c r="P33">
         <f t="shared" si="12"/>
         <v>-0.45599999999999596</v>
@@ -1926,20 +1990,36 @@
         <f t="shared" si="13"/>
         <v>0.20793599999999632</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="R33">
+        <f t="shared" si="14"/>
+        <v>5.0000000000000711E-2</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="15"/>
+        <v>2.5000000000000712E-3</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="16"/>
+        <v>0.34899999999999665</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="17"/>
+        <v>0.12180099999999766</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D34">
         <f>SQRT((G27*B3*P27*(B4-B7)/(9*B2))^2*J27^2+(G27^2*B3*(B4-B7)/(18*B2))^2*Q42^2+(G27^2*B3*P27/(18*B2))^2*A11^2+(G27^2*B3*P27/(18*B2))^2*C7^2+(G27^2*B3*P27*(B4-B7)/(18*B2^2))^2*C2^2)</f>
         <v>6.9746811328229463E-2</v>
       </c>
       <c r="F34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P34">
         <f t="shared" si="12"/>
@@ -1949,18 +2029,34 @@
         <f t="shared" si="13"/>
         <v>4.6655999999998934E-2</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="R34">
+        <f t="shared" si="14"/>
+        <v>-0.32000000000000028</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="15"/>
+        <v>0.10240000000000019</v>
+      </c>
+      <c r="T34">
+        <f t="shared" si="16"/>
+        <v>-0.24100000000000676</v>
+      </c>
+      <c r="U34">
+        <f t="shared" si="17"/>
+        <v>5.8081000000003262E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D35">
-        <f>SQRT((H27*B3*Q27*(B5-B7)/(9*B2))^2*J27^2+(H27^2*B3*(B5-B7)/(18*B2))^2*Q42^2+(H27^2*B3*Q27/(18*B2))^2*A12^2+(H27^2*B3*Q27/(18*B2))^2*C7^2+(H27^2*B3*Q27*(B5-B7)/(18*B2^2))^2*C2^2)</f>
-        <v>7.0434060739725857E-2</v>
+        <f>SQRT((H27*B3*Q27*(B5-B7)/(9*B2))^2*J27^2+(H27^2*B3*(B5-B7)/(18*B2))^2*S42^2+(H27^2*B3*Q27/(18*B2))^2*A12^2+(H27^2*B3*Q27/(18*B2))^2*C7^2+(H27^2*B3*Q27*(B5-B7)/(18*B2^2))^2*C2^2)</f>
+        <v>6.9960159014700513E-2</v>
       </c>
       <c r="F35">
         <f>(D34+D35+D36)/3</f>
-        <v>8.5274582346902147E-2</v>
+        <v>8.5103697666555234E-2</v>
       </c>
       <c r="P35">
         <f t="shared" si="12"/>
@@ -1970,14 +2066,30 @@
         <f t="shared" si="13"/>
         <v>9.2416000000001247E-2</v>
       </c>
-    </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="R35">
+        <f t="shared" si="14"/>
+        <v>-5.0000000000000711E-2</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="15"/>
+        <v>2.5000000000000712E-3</v>
+      </c>
+      <c r="T35">
+        <f t="shared" si="16"/>
+        <v>-0.18100000000000449</v>
+      </c>
+      <c r="U35">
+        <f t="shared" si="17"/>
+        <v>3.2761000000001622E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:21" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D36">
-        <f>SQRT((I27*B3*R27*(B6-B7)/(9*B2))^2*J27^2+(I27^2*B3*(B6-B7)/(18*B2))^2*Q42^2+(I27^2*B3*R27/(18*B2))^2*A13^2+(I27^2*B3*R27/(18*B2))^2*C7^2+(I27^2*B3*R27*(B6-B7)/(18*B2^2))^2*C2^2)</f>
-        <v>0.11564287497275108</v>
+        <f>SQRT((I27*B3*R27*(B6-B7)/(9*B2))^2*J27^2+(I27^2*B3*(B6-B7)/(18*B2))^2*U42^2+(I27^2*B3*R27/(18*B2))^2*A13^2+(I27^2*B3*R27/(18*B2))^2*C7^2+(I27^2*B3*R27*(B6-B7)/(18*B2^2))^2*C2^2)</f>
+        <v>0.1156041226567357</v>
       </c>
       <c r="P36">
         <f t="shared" si="12"/>
@@ -1987,8 +2099,24 @@
         <f t="shared" si="13"/>
         <v>0.19009599999999685</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="R36">
+        <f t="shared" si="14"/>
+        <v>-0.44000000000000128</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="15"/>
+        <v>0.19360000000000113</v>
+      </c>
+      <c r="T36">
+        <f t="shared" si="16"/>
+        <v>0.34899999999999665</v>
+      </c>
+      <c r="U36">
+        <f t="shared" si="17"/>
+        <v>0.12180099999999766</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.3">
       <c r="P37">
         <f t="shared" si="12"/>
         <v>-0.34599999999999653</v>
@@ -1997,8 +2125,24 @@
         <f t="shared" si="13"/>
         <v>0.1197159999999976</v>
       </c>
-    </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="R37">
+        <f t="shared" si="14"/>
+        <v>0.4599999999999973</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="15"/>
+        <v>0.21159999999999751</v>
+      </c>
+      <c r="T37">
+        <f t="shared" si="16"/>
+        <v>-0.5210000000000008</v>
+      </c>
+      <c r="U37">
+        <f t="shared" si="17"/>
+        <v>0.27144100000000082</v>
+      </c>
+    </row>
+    <row r="38" spans="2:21" x14ac:dyDescent="0.3">
       <c r="P38">
         <f t="shared" si="12"/>
         <v>-9.5999999999996533E-2</v>
@@ -2007,19 +2151,41 @@
         <f t="shared" si="13"/>
         <v>9.2159999999993341E-3</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="R38">
+        <f t="shared" si="14"/>
+        <v>-0.46000000000000085</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="15"/>
+        <v>0.21160000000000079</v>
+      </c>
+      <c r="T38">
+        <f t="shared" si="16"/>
+        <v>-0.75100000000000477</v>
+      </c>
+      <c r="U38">
+        <f t="shared" si="17"/>
+        <v>0.56400100000000719</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>46</v>
+        <v>45</v>
+      </c>
+      <c r="C39" t="s">
+        <v>40</v>
       </c>
       <c r="D39">
         <v>0.93479999999999996</v>
       </c>
       <c r="F39" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C40" t="s">
+        <v>41</v>
+      </c>
       <c r="D40">
         <v>0.99839999999999995</v>
       </c>
@@ -2027,23 +2193,45 @@
         <f>(D39+D40+D41)/3</f>
         <v>0.89206666666666656</v>
       </c>
+      <c r="P40" t="s">
+        <v>48</v>
+      </c>
       <c r="Q40">
         <f>SQRT(SUM(Q29:Q38)/(90))</f>
         <v>0.20987933040996035</v>
       </c>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="S40">
+        <f t="shared" ref="R40:U40" si="18">SQRT(SUM(S29:S38)/(90))</f>
+        <v>0.11335293948058356</v>
+      </c>
+      <c r="U40">
+        <f t="shared" si="18"/>
+        <v>0.14756881633853267</v>
+      </c>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C41" t="s">
+        <v>42</v>
+      </c>
       <c r="D41">
         <v>0.74299999999999999</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.3">
       <c r="P42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q42">
         <f>SQRT(Q40^2+0.02^2/3)</f>
         <v>0.21019673324451701</v>
+      </c>
+      <c r="S42">
+        <f t="shared" ref="R42:U42" si="19">SQRT(S40^2+0.02^2/3)</f>
+        <v>0.1139395551256111</v>
+      </c>
+      <c r="U42">
+        <f t="shared" si="19"/>
+        <v>0.14801989355788941</v>
       </c>
     </row>
   </sheetData>

--- a/Spraw2/lab2.xlsx
+++ b/Spraw2/lab2.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A391676-9D41-49F3-9B61-D38F5C8AEBE0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CFD1ABC-5CCF-45E9-9F0A-45F8A07D3A90}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="50">
   <si>
     <t>Srednice:</t>
   </si>
@@ -173,6 +173,9 @@
   </si>
   <si>
     <t>Si</t>
+  </si>
+  <si>
+    <t>nieb</t>
   </si>
 </sst>
 </file>
@@ -319,11 +322,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Akcent 1" xfId="1" builtinId="29"/>
-    <cellStyle name="Akcent 2" xfId="2" builtinId="33"/>
-    <cellStyle name="Akcent 3" xfId="3" builtinId="37"/>
-    <cellStyle name="Dane wejściowe" xfId="4" builtinId="20"/>
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Accent1" xfId="1" builtinId="29"/>
+    <cellStyle name="Accent2" xfId="2" builtinId="33"/>
+    <cellStyle name="Accent3" xfId="3" builtinId="37"/>
+    <cellStyle name="Input" xfId="4" builtinId="20"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -675,8 +678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D19" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U28" sqref="U28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1877,6 +1880,26 @@
         <v>37.041000000000004</v>
       </c>
     </row>
+    <row r="28" spans="6:21" x14ac:dyDescent="0.3">
+      <c r="P28" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>40</v>
+      </c>
+      <c r="R28" t="s">
+        <v>41</v>
+      </c>
+      <c r="S28" t="s">
+        <v>41</v>
+      </c>
+      <c r="T28" t="s">
+        <v>49</v>
+      </c>
+      <c r="U28" t="s">
+        <v>49</v>
+      </c>
+    </row>
     <row r="29" spans="6:21" x14ac:dyDescent="0.3">
       <c r="P29">
         <f>P17-$P$27</f>
@@ -2201,7 +2224,7 @@
         <v>0.20987933040996035</v>
       </c>
       <c r="S40">
-        <f t="shared" ref="R40:U40" si="18">SQRT(SUM(S29:S38)/(90))</f>
+        <f t="shared" ref="S40:U40" si="18">SQRT(SUM(S29:S38)/(90))</f>
         <v>0.11335293948058356</v>
       </c>
       <c r="U40">
@@ -2226,7 +2249,7 @@
         <v>0.21019673324451701</v>
       </c>
       <c r="S42">
-        <f t="shared" ref="R42:U42" si="19">SQRT(S40^2+0.02^2/3)</f>
+        <f t="shared" ref="S42:U42" si="19">SQRT(S40^2+0.02^2/3)</f>
         <v>0.1139395551256111</v>
       </c>
       <c r="U42">

--- a/Spraw2/lab2.xlsx
+++ b/Spraw2/lab2.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CFD1ABC-5CCF-45E9-9F0A-45F8A07D3A90}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F58D66E-3431-49DB-A6C6-FCD3B8DF4F3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -106,9 +106,6 @@
     <t>Niebieska</t>
   </si>
   <si>
-    <t>+/- 0.05mm</t>
-  </si>
-  <si>
     <t>g[m/s^2]=</t>
   </si>
   <si>
@@ -176,6 +173,9 @@
   </si>
   <si>
     <t>nieb</t>
+  </si>
+  <si>
+    <t>+/- 1mm</t>
   </si>
 </sst>
 </file>
@@ -322,11 +322,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Accent1" xfId="1" builtinId="29"/>
-    <cellStyle name="Accent2" xfId="2" builtinId="33"/>
-    <cellStyle name="Accent3" xfId="3" builtinId="37"/>
-    <cellStyle name="Input" xfId="4" builtinId="20"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Akcent 1" xfId="1" builtinId="29"/>
+    <cellStyle name="Akcent 2" xfId="2" builtinId="33"/>
+    <cellStyle name="Akcent 3" xfId="3" builtinId="37"/>
+    <cellStyle name="Dane wejściowe" xfId="4" builtinId="20"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -381,7 +381,7 @@
     <tableColumn id="2" xr3:uid="{E91DD9E3-CC68-4499-8258-D136C1584826}" name="Biala[mm]"/>
     <tableColumn id="3" xr3:uid="{31EA2A69-9772-46CD-9EF9-077D33D7AACA}" name="Czarna[mm]"/>
     <tableColumn id="4" xr3:uid="{E9BE3F0D-3671-40FB-AD41-771B89F211D9}" name="Niebieska[mm]"/>
-    <tableColumn id="5" xr3:uid="{2B4AD0EC-0E4D-460C-B65D-DC4111D2A413}" name="+/- 0.05mm"/>
+    <tableColumn id="5" xr3:uid="{2B4AD0EC-0E4D-460C-B65D-DC4111D2A413}" name="+/- 1mm"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -679,48 +679,48 @@
   <dimension ref="A1:U42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U28" sqref="U28"/>
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.21875" customWidth="1"/>
-    <col min="6" max="6" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" s="11">
         <v>0.34100000000000003</v>
@@ -729,15 +729,15 @@
         <v>1E-3</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="11">
         <v>9.81</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>5</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>6</v>
@@ -788,9 +788,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" s="11">
         <v>1821.45</v>
@@ -799,7 +799,7 @@
         <v>34.261363735195431</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F4" s="2">
         <v>1</v>
@@ -814,7 +814,7 @@
         <v>8</v>
       </c>
       <c r="J4" s="4">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="K4" s="1">
         <v>1</v>
@@ -841,9 +841,9 @@
         <v>37.08</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" s="11">
         <v>2132.59</v>
@@ -852,7 +852,7 @@
         <v>53.485061719678434</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F5" s="2">
         <v>2</v>
@@ -867,7 +867,7 @@
         <v>8</v>
       </c>
       <c r="J5" s="4">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="K5" s="1">
         <v>2</v>
@@ -894,9 +894,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" s="11">
         <v>1526.1</v>
@@ -905,7 +905,7 @@
         <v>28.705739623618161</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F6" s="2">
         <v>3</v>
@@ -920,7 +920,7 @@
         <v>8</v>
       </c>
       <c r="J6" s="4">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="K6" s="1">
         <v>3</v>
@@ -947,9 +947,9 @@
         <v>37.159999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B7" s="11">
         <v>1330</v>
@@ -958,7 +958,7 @@
         <v>10</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F7" s="2">
         <v>4</v>
@@ -973,7 +973,7 @@
         <v>8</v>
       </c>
       <c r="J7" s="4">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="K7" s="1">
         <v>4</v>
@@ -1000,7 +1000,7 @@
         <v>37.92</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="F8" s="2">
         <v>5</v>
       </c>
@@ -1014,7 +1014,7 @@
         <v>8</v>
       </c>
       <c r="J8" s="4">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="K8" s="1">
         <v>5</v>
@@ -1041,7 +1041,7 @@
         <v>37.39</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="F9" s="2">
         <v>6</v>
       </c>
@@ -1055,7 +1055,7 @@
         <v>8</v>
       </c>
       <c r="J9" s="4">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="K9" s="1">
         <v>6</v>
@@ -1082,7 +1082,7 @@
         <v>36.799999999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
       <c r="F10" s="2">
         <v>7</v>
@@ -1097,7 +1097,7 @@
         <v>8</v>
       </c>
       <c r="J10" s="4">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="K10" s="1">
         <v>7</v>
@@ -1124,13 +1124,13 @@
         <v>36.86</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <f>SQRT((6/(3.14159*G27^3))^2*0.00000001^2+((18*L27)/(3.13159*G27^4))^2*J27^2)</f>
-        <v>34.261363735195431</v>
+        <v>685.2268695948502</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" s="2">
         <v>8</v>
@@ -1145,7 +1145,7 @@
         <v>8</v>
       </c>
       <c r="J11" s="4">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="K11" s="1">
         <v>8</v>
@@ -1172,13 +1172,13 @@
         <v>37.39</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <f>SQRT((6/(3.14159*H27^3))^2*0.00000001^2+((18*M27)/(3.13159*H27^4))^2*J27^2)</f>
-        <v>53.485061719678434</v>
+        <v>1069.6997763292379</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F12" s="2">
         <v>9</v>
@@ -1193,7 +1193,7 @@
         <v>8</v>
       </c>
       <c r="J12" s="4">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="K12" s="1">
         <v>9</v>
@@ -1220,13 +1220,13 @@
         <v>36.520000000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <f>SQRT((6/(3.14159*I27^3))^2*0.00000001^2+((18*N27)/(3.13159*I27^4))^2*J27^2)</f>
-        <v>28.705739623618161</v>
+        <v>574.11430895963281</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F13" s="2">
         <v>10</v>
@@ -1241,7 +1241,7 @@
         <v>8</v>
       </c>
       <c r="J13" s="4">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="K13" s="1">
         <v>10</v>
@@ -1268,7 +1268,7 @@
         <v>36.29</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="F16" s="9" t="s">
         <v>12</v>
       </c>
@@ -1309,7 +1309,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="6:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="6:21" x14ac:dyDescent="0.25">
       <c r="F17" s="9">
         <f>F4</f>
         <v>1</v>
@@ -1328,7 +1328,7 @@
       </c>
       <c r="J17" s="9">
         <f>J4/1000</f>
-        <v>5.0000000000000002E-5</v>
+        <v>1E-3</v>
       </c>
       <c r="K17" s="1">
         <v>1</v>
@@ -1361,7 +1361,7 @@
         <v>37.08</v>
       </c>
     </row>
-    <row r="18" spans="6:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="6:21" x14ac:dyDescent="0.25">
       <c r="F18" s="9">
         <f t="shared" ref="F18:F26" si="2">F5</f>
         <v>2</v>
@@ -1380,7 +1380,7 @@
       </c>
       <c r="J18" s="9">
         <f t="shared" si="3"/>
-        <v>5.0000000000000002E-5</v>
+        <v>1E-3</v>
       </c>
       <c r="K18" s="1">
         <v>2</v>
@@ -1413,7 +1413,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="6:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="6:21" x14ac:dyDescent="0.25">
       <c r="F19" s="9">
         <f t="shared" si="2"/>
         <v>3</v>
@@ -1432,7 +1432,7 @@
       </c>
       <c r="J19" s="9">
         <f t="shared" si="3"/>
-        <v>5.0000000000000002E-5</v>
+        <v>1E-3</v>
       </c>
       <c r="K19" s="1">
         <v>3</v>
@@ -1465,7 +1465,7 @@
         <v>37.159999999999997</v>
       </c>
     </row>
-    <row r="20" spans="6:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="6:21" x14ac:dyDescent="0.25">
       <c r="F20" s="9">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -1484,7 +1484,7 @@
       </c>
       <c r="J20" s="9">
         <f t="shared" si="3"/>
-        <v>5.0000000000000002E-5</v>
+        <v>1E-3</v>
       </c>
       <c r="K20" s="1">
         <v>4</v>
@@ -1517,7 +1517,7 @@
         <v>37.92</v>
       </c>
     </row>
-    <row r="21" spans="6:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="6:21" x14ac:dyDescent="0.25">
       <c r="F21" s="9">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="J21" s="9">
         <f t="shared" si="3"/>
-        <v>5.0000000000000002E-5</v>
+        <v>1E-3</v>
       </c>
       <c r="K21" s="1">
         <v>5</v>
@@ -1569,7 +1569,7 @@
         <v>37.39</v>
       </c>
     </row>
-    <row r="22" spans="6:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="6:21" x14ac:dyDescent="0.25">
       <c r="F22" s="9">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -1588,7 +1588,7 @@
       </c>
       <c r="J22" s="9">
         <f t="shared" si="3"/>
-        <v>5.0000000000000002E-5</v>
+        <v>1E-3</v>
       </c>
       <c r="K22" s="1">
         <v>6</v>
@@ -1621,7 +1621,7 @@
         <v>36.799999999999997</v>
       </c>
     </row>
-    <row r="23" spans="6:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="6:21" x14ac:dyDescent="0.25">
       <c r="F23" s="9">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -1640,7 +1640,7 @@
       </c>
       <c r="J23" s="9">
         <f t="shared" si="3"/>
-        <v>5.0000000000000002E-5</v>
+        <v>1E-3</v>
       </c>
       <c r="K23" s="1">
         <v>7</v>
@@ -1673,7 +1673,7 @@
         <v>36.86</v>
       </c>
     </row>
-    <row r="24" spans="6:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="6:21" x14ac:dyDescent="0.25">
       <c r="F24" s="9">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -1692,7 +1692,7 @@
       </c>
       <c r="J24" s="9">
         <f t="shared" si="3"/>
-        <v>5.0000000000000002E-5</v>
+        <v>1E-3</v>
       </c>
       <c r="K24" s="1">
         <v>8</v>
@@ -1725,7 +1725,7 @@
         <v>37.39</v>
       </c>
     </row>
-    <row r="25" spans="6:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="6:21" x14ac:dyDescent="0.25">
       <c r="F25" s="9">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -1744,7 +1744,7 @@
       </c>
       <c r="J25" s="9">
         <f t="shared" si="3"/>
-        <v>5.0000000000000002E-5</v>
+        <v>1E-3</v>
       </c>
       <c r="K25" s="1">
         <v>9</v>
@@ -1777,13 +1777,13 @@
         <v>36.520000000000003</v>
       </c>
     </row>
-    <row r="26" spans="6:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="6:21" x14ac:dyDescent="0.25">
       <c r="F26" s="9">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="G26" s="9">
-        <f t="shared" si="3"/>
+        <f>G13/1000</f>
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="H26" s="9">
@@ -1796,7 +1796,7 @@
       </c>
       <c r="J26" s="9">
         <f t="shared" si="3"/>
-        <v>5.0000000000000002E-5</v>
+        <v>1E-3</v>
       </c>
       <c r="K26" s="1">
         <v>10</v>
@@ -1829,7 +1829,7 @@
         <v>36.29</v>
       </c>
     </row>
-    <row r="27" spans="6:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="6:21" x14ac:dyDescent="0.25">
       <c r="F27" t="s">
         <v>24</v>
       </c>
@@ -1847,7 +1847,7 @@
       </c>
       <c r="J27" s="9">
         <f t="shared" si="8"/>
-        <v>5.0000000000000009E-5</v>
+        <v>1.0000000000000002E-3</v>
       </c>
       <c r="K27" t="s">
         <v>24</v>
@@ -1880,27 +1880,27 @@
         <v>37.041000000000004</v>
       </c>
     </row>
-    <row r="28" spans="6:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="6:21" x14ac:dyDescent="0.25">
       <c r="P28" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>39</v>
+      </c>
+      <c r="R28" t="s">
         <v>40</v>
       </c>
-      <c r="Q28" t="s">
+      <c r="S28" t="s">
         <v>40</v>
       </c>
-      <c r="R28" t="s">
-        <v>41</v>
-      </c>
-      <c r="S28" t="s">
-        <v>41</v>
-      </c>
       <c r="T28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="U28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="6:21" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="6:21" x14ac:dyDescent="0.25">
       <c r="P29">
         <f>P17-$P$27</f>
         <v>1.4000000000002899E-2</v>
@@ -1926,7 +1926,7 @@
         <v>1.5209999999995611E-3</v>
       </c>
     </row>
-    <row r="30" spans="6:21" x14ac:dyDescent="0.3">
+    <row r="30" spans="6:21" x14ac:dyDescent="0.25">
       <c r="P30">
         <f t="shared" ref="P30:P38" si="12">P18-$P$27</f>
         <v>-0.11599999999999611</v>
@@ -1952,7 +1952,7 @@
         <v>1.6810000000003216E-3</v>
       </c>
     </row>
-    <row r="31" spans="6:21" x14ac:dyDescent="0.3">
+    <row r="31" spans="6:21" x14ac:dyDescent="0.25">
       <c r="P31">
         <f t="shared" si="12"/>
         <v>1.7640000000000029</v>
@@ -1978,7 +1978,7 @@
         <v>1.4160999999998255E-2</v>
       </c>
     </row>
-    <row r="32" spans="6:21" x14ac:dyDescent="0.3">
+    <row r="32" spans="6:21" x14ac:dyDescent="0.25">
       <c r="P32">
         <f t="shared" si="12"/>
         <v>-0.41599999999999682</v>
@@ -2004,7 +2004,7 @@
         <v>0.77264099999999614</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.25">
       <c r="P33">
         <f t="shared" si="12"/>
         <v>-0.45599999999999596</v>
@@ -2030,19 +2030,19 @@
         <v>0.12180099999999766</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D34">
         <f>SQRT((G27*B3*P27*(B4-B7)/(9*B2))^2*J27^2+(G27^2*B3*(B4-B7)/(18*B2))^2*Q42^2+(G27^2*B3*P27/(18*B2))^2*A11^2+(G27^2*B3*P27/(18*B2))^2*C7^2+(G27^2*B3*P27*(B4-B7)/(18*B2^2))^2*C2^2)</f>
-        <v>6.9746811328229463E-2</v>
+        <v>1.3243623061148884</v>
       </c>
       <c r="F34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P34">
         <f t="shared" si="12"/>
@@ -2069,17 +2069,17 @@
         <v>5.8081000000003262E-2</v>
       </c>
     </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D35">
         <f>SQRT((H27*B3*Q27*(B5-B7)/(9*B2))^2*J27^2+(H27^2*B3*(B5-B7)/(18*B2))^2*S42^2+(H27^2*B3*Q27/(18*B2))^2*A12^2+(H27^2*B3*Q27/(18*B2))^2*C7^2+(H27^2*B3*Q27*(B5-B7)/(18*B2^2))^2*C2^2)</f>
-        <v>6.9960159014700513E-2</v>
+        <v>1.3716988329270976</v>
       </c>
       <c r="F35">
         <f>(D34+D35+D36)/3</f>
-        <v>8.5103697666555234E-2</v>
+        <v>1.6265097366780907</v>
       </c>
       <c r="P35">
         <f t="shared" si="12"/>
@@ -2106,13 +2106,13 @@
         <v>3.2761000000001622E-2</v>
       </c>
     </row>
-    <row r="36" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D36">
         <f>SQRT((I27*B3*R27*(B6-B7)/(9*B2))^2*J27^2+(I27^2*B3*(B6-B7)/(18*B2))^2*U42^2+(I27^2*B3*R27/(18*B2))^2*A13^2+(I27^2*B3*R27/(18*B2))^2*C7^2+(I27^2*B3*R27*(B6-B7)/(18*B2^2))^2*C2^2)</f>
-        <v>0.1156041226567357</v>
+        <v>2.1834680709922862</v>
       </c>
       <c r="P36">
         <f t="shared" si="12"/>
@@ -2139,7 +2139,7 @@
         <v>0.12180099999999766</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.25">
       <c r="P37">
         <f t="shared" si="12"/>
         <v>-0.34599999999999653</v>
@@ -2165,7 +2165,7 @@
         <v>0.27144100000000082</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.25">
       <c r="P38">
         <f t="shared" si="12"/>
         <v>-9.5999999999996533E-2</v>
@@ -2191,23 +2191,23 @@
         <v>0.56400100000000719</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D39">
         <v>0.93479999999999996</v>
       </c>
       <c r="F39" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D40">
         <v>0.99839999999999995</v>
@@ -2217,7 +2217,7 @@
         <v>0.89206666666666656</v>
       </c>
       <c r="P40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q40">
         <f>SQRT(SUM(Q29:Q38)/(90))</f>
@@ -2232,17 +2232,17 @@
         <v>0.14756881633853267</v>
       </c>
     </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D41">
         <v>0.74299999999999999</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.25">
       <c r="P42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q42">
         <f>SQRT(Q40^2+0.02^2/3)</f>

--- a/Spraw2/lab2.xlsx
+++ b/Spraw2/lab2.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F58D66E-3431-49DB-A6C6-FCD3B8DF4F3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E3B4DB9-E0EA-487C-A687-BA2B3AA7732B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -109,9 +109,6 @@
     <t>g[m/s^2]=</t>
   </si>
   <si>
-    <t>(?)</t>
-  </si>
-  <si>
     <t>RO_k Bialej=</t>
   </si>
   <si>
@@ -176,6 +173,9 @@
   </si>
   <si>
     <t>+/- 1mm</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -679,7 +679,7 @@
   <dimension ref="A1:U42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+      <selection activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -708,19 +708,19 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>35</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" s="11">
         <v>0.34100000000000003</v>
@@ -729,10 +729,7 @@
         <v>1E-3</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -746,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>0</v>
@@ -761,7 +758,7 @@
         <v>5</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>6</v>
@@ -790,7 +787,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="11">
         <v>1821.45</v>
@@ -799,7 +796,7 @@
         <v>34.261363735195431</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F4" s="2">
         <v>1</v>
@@ -843,7 +840,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="11">
         <v>2132.59</v>
@@ -852,7 +849,7 @@
         <v>53.485061719678434</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F5" s="2">
         <v>2</v>
@@ -896,7 +893,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="11">
         <v>1526.1</v>
@@ -905,7 +902,7 @@
         <v>28.705739623618161</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F6" s="2">
         <v>3</v>
@@ -949,7 +946,7 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7" s="11">
         <v>1330</v>
@@ -958,7 +955,7 @@
         <v>10</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F7" s="2">
         <v>4</v>
@@ -1130,7 +1127,7 @@
         <v>685.2268695948502</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F11" s="2">
         <v>8</v>
@@ -1178,7 +1175,7 @@
         <v>1069.6997763292379</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F12" s="2">
         <v>9</v>
@@ -1226,7 +1223,7 @@
         <v>574.11430895963281</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F13" s="2">
         <v>10</v>
@@ -1882,22 +1879,22 @@
     </row>
     <row r="28" spans="6:21" x14ac:dyDescent="0.25">
       <c r="P28" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>38</v>
+      </c>
+      <c r="R28" t="s">
         <v>39</v>
       </c>
-      <c r="Q28" t="s">
+      <c r="S28" t="s">
         <v>39</v>
       </c>
-      <c r="R28" t="s">
-        <v>40</v>
-      </c>
-      <c r="S28" t="s">
-        <v>40</v>
-      </c>
       <c r="T28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="U28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="6:21" x14ac:dyDescent="0.25">
@@ -2032,17 +2029,20 @@
     </row>
     <row r="34" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D34">
         <f>SQRT((G27*B3*P27*(B4-B7)/(9*B2))^2*J27^2+(G27^2*B3*(B4-B7)/(18*B2))^2*Q42^2+(G27^2*B3*P27/(18*B2))^2*A11^2+(G27^2*B3*P27/(18*B2))^2*C7^2+(G27^2*B3*P27*(B4-B7)/(18*B2^2))^2*C2^2)</f>
         <v>1.3243623061148884</v>
       </c>
       <c r="F34" t="s">
-        <v>45</v>
+        <v>44</v>
+      </c>
+      <c r="N34" t="s">
+        <v>49</v>
       </c>
       <c r="P34">
         <f t="shared" si="12"/>
@@ -2071,7 +2071,7 @@
     </row>
     <row r="35" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D35">
         <f>SQRT((H27*B3*Q27*(B5-B7)/(9*B2))^2*J27^2+(H27^2*B3*(B5-B7)/(18*B2))^2*S42^2+(H27^2*B3*Q27/(18*B2))^2*A12^2+(H27^2*B3*Q27/(18*B2))^2*C7^2+(H27^2*B3*Q27*(B5-B7)/(18*B2^2))^2*C2^2)</f>
@@ -2108,7 +2108,7 @@
     </row>
     <row r="36" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D36">
         <f>SQRT((I27*B3*R27*(B6-B7)/(9*B2))^2*J27^2+(I27^2*B3*(B6-B7)/(18*B2))^2*U42^2+(I27^2*B3*R27/(18*B2))^2*A13^2+(I27^2*B3*R27/(18*B2))^2*C7^2+(I27^2*B3*R27*(B6-B7)/(18*B2^2))^2*C2^2)</f>
@@ -2193,21 +2193,21 @@
     </row>
     <row r="39" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D39">
         <v>0.93479999999999996</v>
       </c>
       <c r="F39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D40">
         <v>0.99839999999999995</v>
@@ -2217,7 +2217,7 @@
         <v>0.89206666666666656</v>
       </c>
       <c r="P40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q40">
         <f>SQRT(SUM(Q29:Q38)/(90))</f>
@@ -2234,7 +2234,7 @@
     </row>
     <row r="41" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D41">
         <v>0.74299999999999999</v>
@@ -2242,7 +2242,7 @@
     </row>
     <row r="42" spans="2:21" x14ac:dyDescent="0.25">
       <c r="P42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q42">
         <f>SQRT(Q40^2+0.02^2/3)</f>

--- a/Spraw2/lab2.xlsx
+++ b/Spraw2/lab2.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E3B4DB9-E0EA-487C-A687-BA2B3AA7732B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33408210-5954-4E94-8C27-2D2C632EE251}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -130,9 +130,6 @@
     <t>RO_C Gliceryny=</t>
   </si>
   <si>
-    <t>Blad:</t>
-  </si>
-  <si>
     <t>Jednostka</t>
   </si>
   <si>
@@ -176,6 +173,9 @@
   </si>
   <si>
     <t>s</t>
+  </si>
+  <si>
+    <t>Niep.:</t>
   </si>
 </sst>
 </file>
@@ -678,49 +678,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N34" sqref="N34"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="16" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" s="11">
         <v>0.34100000000000003</v>
@@ -732,7 +732,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>26</v>
       </c>
@@ -758,7 +758,7 @@
         <v>5</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>6</v>
@@ -785,7 +785,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>27</v>
       </c>
@@ -838,7 +838,7 @@
         <v>37.08</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>28</v>
       </c>
@@ -891,7 +891,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>29</v>
       </c>
@@ -944,7 +944,7 @@
         <v>37.159999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>33</v>
       </c>
@@ -997,7 +997,7 @@
         <v>37.92</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="F8" s="2">
         <v>5</v>
       </c>
@@ -1038,7 +1038,7 @@
         <v>37.39</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="F9" s="2">
         <v>6</v>
       </c>
@@ -1079,7 +1079,7 @@
         <v>36.799999999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="13"/>
       <c r="F10" s="2">
         <v>7</v>
@@ -1121,13 +1121,13 @@
         <v>36.86</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="13">
         <f>SQRT((6/(3.14159*G27^3))^2*0.00000001^2+((18*L27)/(3.13159*G27^4))^2*J27^2)</f>
         <v>685.2268695948502</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F11" s="2">
         <v>8</v>
@@ -1169,13 +1169,13 @@
         <v>37.39</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="13">
         <f>SQRT((6/(3.14159*H27^3))^2*0.00000001^2+((18*M27)/(3.13159*H27^4))^2*J27^2)</f>
         <v>1069.6997763292379</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F12" s="2">
         <v>9</v>
@@ -1217,13 +1217,13 @@
         <v>36.520000000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <f>SQRT((6/(3.14159*I27^3))^2*0.00000001^2+((18*N27)/(3.13159*I27^4))^2*J27^2)</f>
         <v>574.11430895963281</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F13" s="2">
         <v>10</v>
@@ -1265,7 +1265,7 @@
         <v>36.29</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="F16" s="9" t="s">
         <v>12</v>
       </c>
@@ -1306,7 +1306,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="6:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="6:21" x14ac:dyDescent="0.3">
       <c r="F17" s="9">
         <f>F4</f>
         <v>1</v>
@@ -1358,7 +1358,7 @@
         <v>37.08</v>
       </c>
     </row>
-    <row r="18" spans="6:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="6:21" x14ac:dyDescent="0.3">
       <c r="F18" s="9">
         <f t="shared" ref="F18:F26" si="2">F5</f>
         <v>2</v>
@@ -1410,7 +1410,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="6:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="6:21" x14ac:dyDescent="0.3">
       <c r="F19" s="9">
         <f t="shared" si="2"/>
         <v>3</v>
@@ -1462,7 +1462,7 @@
         <v>37.159999999999997</v>
       </c>
     </row>
-    <row r="20" spans="6:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="6:21" x14ac:dyDescent="0.3">
       <c r="F20" s="9">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -1514,7 +1514,7 @@
         <v>37.92</v>
       </c>
     </row>
-    <row r="21" spans="6:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="6:21" x14ac:dyDescent="0.3">
       <c r="F21" s="9">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -1566,7 +1566,7 @@
         <v>37.39</v>
       </c>
     </row>
-    <row r="22" spans="6:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="6:21" x14ac:dyDescent="0.3">
       <c r="F22" s="9">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -1618,7 +1618,7 @@
         <v>36.799999999999997</v>
       </c>
     </row>
-    <row r="23" spans="6:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="6:21" x14ac:dyDescent="0.3">
       <c r="F23" s="9">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -1670,7 +1670,7 @@
         <v>36.86</v>
       </c>
     </row>
-    <row r="24" spans="6:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="6:21" x14ac:dyDescent="0.3">
       <c r="F24" s="9">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -1722,7 +1722,7 @@
         <v>37.39</v>
       </c>
     </row>
-    <row r="25" spans="6:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="6:21" x14ac:dyDescent="0.3">
       <c r="F25" s="9">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -1774,7 +1774,7 @@
         <v>36.520000000000003</v>
       </c>
     </row>
-    <row r="26" spans="6:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="6:21" x14ac:dyDescent="0.3">
       <c r="F26" s="9">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -1826,7 +1826,7 @@
         <v>36.29</v>
       </c>
     </row>
-    <row r="27" spans="6:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="6:21" x14ac:dyDescent="0.3">
       <c r="F27" t="s">
         <v>24</v>
       </c>
@@ -1877,27 +1877,27 @@
         <v>37.041000000000004</v>
       </c>
     </row>
-    <row r="28" spans="6:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="6:21" x14ac:dyDescent="0.3">
       <c r="P28" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>37</v>
+      </c>
+      <c r="R28" t="s">
         <v>38</v>
       </c>
-      <c r="Q28" t="s">
+      <c r="S28" t="s">
         <v>38</v>
       </c>
-      <c r="R28" t="s">
-        <v>39</v>
-      </c>
-      <c r="S28" t="s">
-        <v>39</v>
-      </c>
       <c r="T28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U28" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="6:21" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="6:21" x14ac:dyDescent="0.3">
       <c r="P29">
         <f>P17-$P$27</f>
         <v>1.4000000000002899E-2</v>
@@ -1923,7 +1923,7 @@
         <v>1.5209999999995611E-3</v>
       </c>
     </row>
-    <row r="30" spans="6:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="6:21" x14ac:dyDescent="0.3">
       <c r="P30">
         <f t="shared" ref="P30:P38" si="12">P18-$P$27</f>
         <v>-0.11599999999999611</v>
@@ -1949,7 +1949,7 @@
         <v>1.6810000000003216E-3</v>
       </c>
     </row>
-    <row r="31" spans="6:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="6:21" x14ac:dyDescent="0.3">
       <c r="P31">
         <f t="shared" si="12"/>
         <v>1.7640000000000029</v>
@@ -1975,7 +1975,7 @@
         <v>1.4160999999998255E-2</v>
       </c>
     </row>
-    <row r="32" spans="6:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="6:21" x14ac:dyDescent="0.3">
       <c r="P32">
         <f t="shared" si="12"/>
         <v>-0.41599999999999682</v>
@@ -2001,7 +2001,7 @@
         <v>0.77264099999999614</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.3">
       <c r="P33">
         <f t="shared" si="12"/>
         <v>-0.45599999999999596</v>
@@ -2027,22 +2027,22 @@
         <v>0.12180099999999766</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D34">
         <f>SQRT((G27*B3*P27*(B4-B7)/(9*B2))^2*J27^2+(G27^2*B3*(B4-B7)/(18*B2))^2*Q42^2+(G27^2*B3*P27/(18*B2))^2*A11^2+(G27^2*B3*P27/(18*B2))^2*C7^2+(G27^2*B3*P27*(B4-B7)/(18*B2^2))^2*C2^2)</f>
         <v>1.3243623061148884</v>
       </c>
       <c r="F34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P34">
         <f t="shared" si="12"/>
@@ -2069,9 +2069,9 @@
         <v>5.8081000000003262E-2</v>
       </c>
     </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:21" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D35">
         <f>SQRT((H27*B3*Q27*(B5-B7)/(9*B2))^2*J27^2+(H27^2*B3*(B5-B7)/(18*B2))^2*S42^2+(H27^2*B3*Q27/(18*B2))^2*A12^2+(H27^2*B3*Q27/(18*B2))^2*C7^2+(H27^2*B3*Q27*(B5-B7)/(18*B2^2))^2*C2^2)</f>
@@ -2106,9 +2106,9 @@
         <v>3.2761000000001622E-2</v>
       </c>
     </row>
-    <row r="36" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:21" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D36">
         <f>SQRT((I27*B3*R27*(B6-B7)/(9*B2))^2*J27^2+(I27^2*B3*(B6-B7)/(18*B2))^2*U42^2+(I27^2*B3*R27/(18*B2))^2*A13^2+(I27^2*B3*R27/(18*B2))^2*C7^2+(I27^2*B3*R27*(B6-B7)/(18*B2^2))^2*C2^2)</f>
@@ -2139,7 +2139,7 @@
         <v>0.12180099999999766</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.3">
       <c r="P37">
         <f t="shared" si="12"/>
         <v>-0.34599999999999653</v>
@@ -2165,7 +2165,7 @@
         <v>0.27144100000000082</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.3">
       <c r="P38">
         <f t="shared" si="12"/>
         <v>-9.5999999999996533E-2</v>
@@ -2191,23 +2191,23 @@
         <v>0.56400100000000719</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D39">
         <v>0.93479999999999996</v>
       </c>
       <c r="F39" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D40">
         <v>0.99839999999999995</v>
@@ -2217,7 +2217,7 @@
         <v>0.89206666666666656</v>
       </c>
       <c r="P40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q40">
         <f>SQRT(SUM(Q29:Q38)/(90))</f>
@@ -2232,17 +2232,17 @@
         <v>0.14756881633853267</v>
       </c>
     </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:21" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D41">
         <v>0.74299999999999999</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.3">
       <c r="P42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q42">
         <f>SQRT(Q40^2+0.02^2/3)</f>
